--- a/results/mp/logistic/toy-spam/confidence/42/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/42/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,27 +40,27 @@
     <t>name</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>poorly</t>
-  </si>
-  <si>
     <t>disappointing</t>
   </si>
   <si>
@@ -70,40 +70,46 @@
     <t>return</t>
   </si>
   <si>
+    <t>paid</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
     <t>paint</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>sound</t>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>small</t>
   </si>
   <si>
     <t>worked</t>
@@ -112,31 +118,28 @@
     <t>thought</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>picture</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
     <t>product</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>would</t>
   </si>
   <si>
     <t>negative</t>
@@ -530,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,10 +541,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -599,13 +602,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9662162162162162</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -617,19 +620,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3">
+        <v>0.6461538461538462</v>
+      </c>
+      <c r="L3">
         <v>42</v>
       </c>
-      <c r="K3">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="L3">
-        <v>40</v>
-      </c>
       <c r="M3">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -641,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -649,13 +652,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9527027027027027</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="C4">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="D4">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -667,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K4">
         <v>0.4675324675324675</v>
@@ -699,13 +702,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9428571428571428</v>
+        <v>0.941747572815534</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -717,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>0.4086021505376344</v>
@@ -749,13 +752,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9223300970873787</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C6">
-        <v>190</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>190</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -767,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>0.2510373443983402</v>
+        <v>0.2489626556016598</v>
       </c>
       <c r="L6">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M6">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -791,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -799,13 +802,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9154929577464789</v>
+        <v>0.9295774647887324</v>
       </c>
       <c r="C7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -817,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>0.2410329985652798</v>
+        <v>0.2367288378766141</v>
       </c>
       <c r="L7">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M7">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -841,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -849,13 +852,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9086021505376344</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C8">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -867,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>0.1926605504587156</v>
+        <v>0.2048929663608563</v>
       </c>
       <c r="L8">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M8">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -891,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -899,13 +902,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8913043478260869</v>
+        <v>0.8978494623655914</v>
       </c>
       <c r="C9">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="D9">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -917,31 +920,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>0.1493027071369975</v>
+        <v>0.1622950819672131</v>
       </c>
       <c r="L9">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="M9">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="N9">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1037</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -970,16 +973,16 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>0.09192200557103064</v>
+        <v>0.09749303621169916</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -991,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -999,13 +1002,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8842105263157894</v>
+        <v>0.8631578947368421</v>
       </c>
       <c r="C11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1017,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.07268007787151201</v>
+        <v>0.07981829980532122</v>
       </c>
       <c r="L11">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="M11">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1041,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1429</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1049,28 +1052,28 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8387096774193549</v>
+        <v>0.8548387096774194</v>
       </c>
       <c r="C12">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>53</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="D12">
-        <v>52</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="K12">
         <v>0.05872042068361086</v>
@@ -1099,13 +1102,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.75</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C13">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="D13">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1117,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1125,13 +1128,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7222222222222222</v>
+        <v>0.765625</v>
       </c>
       <c r="C14">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="D14">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1143,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1177,13 +1180,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6666666666666666</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1195,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1203,13 +1206,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6428571428571429</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1229,13 +1232,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6111111111111112</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D18">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1247,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1255,13 +1258,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6065573770491803</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C19">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1273,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1281,13 +1284,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5454545454545454</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1299,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1307,13 +1310,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5370370370370371</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1325,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1333,13 +1336,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5079365079365079</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1351,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1359,13 +1362,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4928909952606635</v>
+        <v>0.4597156398104265</v>
       </c>
       <c r="C23">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D23">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1377,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1385,13 +1388,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4347826086956522</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="C24">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1403,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1411,13 +1414,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4166666666666667</v>
+        <v>0.3814432989690721</v>
       </c>
       <c r="C25">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D25">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1429,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1437,13 +1440,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3564356435643564</v>
+        <v>0.3391304347826087</v>
       </c>
       <c r="C26">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="D26">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1455,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>130</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1463,13 +1466,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3333333333333333</v>
+        <v>0.3240740740740741</v>
       </c>
       <c r="C27">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="D27">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1481,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>230</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1489,13 +1492,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3092783505154639</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="C28">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1507,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>67</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1515,13 +1518,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2974683544303797</v>
+        <v>0.2816455696202532</v>
       </c>
       <c r="C29">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D29">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1533,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1541,13 +1544,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.23</v>
+        <v>0.2436974789915966</v>
       </c>
       <c r="C30">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1559,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>154</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1567,7 +1570,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1231884057971015</v>
+        <v>0.17</v>
       </c>
       <c r="C31">
         <v>34</v>
@@ -1585,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>242</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1593,13 +1596,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.118942731277533</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="C32">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D32">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1611,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>400</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1619,13 +1622,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1139240506329114</v>
+        <v>0.1485507246376812</v>
       </c>
       <c r="C33">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D33">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1637,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>280</v>
+        <v>235</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1645,25 +1648,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.09779179810725552</v>
+        <v>0.09212481426448738</v>
       </c>
       <c r="C34">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D34">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>286</v>
+        <v>611</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1671,25 +1674,51 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0950965824665676</v>
+        <v>0.09148264984227129</v>
       </c>
       <c r="C35">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="D35">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="E35">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>609</v>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.08590308370044053</v>
+      </c>
+      <c r="C36">
+        <v>39</v>
+      </c>
+      <c r="D36">
+        <v>39</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
